--- a/docs/en/images/Fig_(en).xlsx
+++ b/docs/en/images/Fig_(en).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\y_tam\Source\repos\DriveIndicatorAI\docs\ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\y_tam\Source\repos\DriveIndicatorAI\docs\en\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E664641D-EC9F-4FFA-BB45-078578D71A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04110F9B-C905-4488-8740-8F989B096614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="1060" windowWidth="18900" windowHeight="19160" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
+    <workbookView xWindow="3040" yWindow="2440" windowWidth="18900" windowHeight="19160" firstSheet="2" activeTab="5" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_(en)_1.4" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Fig_(en)_2.2" sheetId="7" r:id="rId3"/>
     <sheet name="Fig_(en)_2.3" sheetId="8" r:id="rId4"/>
     <sheet name="Fig_(en)_5.2.3" sheetId="9" r:id="rId5"/>
-    <sheet name="Fig_(en)_7.2" sheetId="10" r:id="rId6"/>
+    <sheet name="Fig_(en)_6.1" sheetId="11" r:id="rId6"/>
+    <sheet name="Fig_(en)_7.2" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fig_(en)_1.4'!$A$1:$U$18</definedName>
@@ -26,7 +27,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Fig_(en)_2.2'!$A$1:$AB$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Fig_(en)_2.3'!$A$1:$R$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Fig_(en)_5.2.3'!$A$1:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Fig_(en)_7.2'!$A$1:$S$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Fig_(en)_6.1'!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Fig_(en)_7.2'!$A$1:$S$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>SettingsManager</t>
     <phoneticPr fontId="1"/>
@@ -245,6 +247,58 @@
   </si>
   <si>
     <t>File write event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">96 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">120 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">144 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">192 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W16×H16 dots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W32×H32 dots</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -286,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -523,13 +577,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +772,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,11 +786,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -702,7 +796,34 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0212CC2-519E-40D4-BA69-226909DD7235}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3113,219 +3234,219 @@
     </row>
     <row r="8" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="9" spans="1:18" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="17" t="s">
@@ -3415,118 +3536,118 @@
     </row>
     <row r="2" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:17" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
@@ -3554,6 +3675,157 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B55C6-DB72-411D-90D7-2BBBF10034E9}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="3.08203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+    </row>
+    <row r="7" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
+      <c r="Q9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783DB97-F02D-46A7-9A54-65EA40D557D5}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -3570,67 +3842,67 @@
     </row>
     <row r="2" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:19" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="1:19" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:19" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>

--- a/docs/en/images/Fig_(en).xlsx
+++ b/docs/en/images/Fig_(en).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\y_tam\Source\repos\DriveIndicatorAI\docs\en\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04110F9B-C905-4488-8740-8F989B096614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA346F0-7583-4C28-AA23-4D96711F6EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2440" windowWidth="18900" windowHeight="19160" firstSheet="2" activeTab="5" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
+    <workbookView xWindow="2990" yWindow="830" windowWidth="18900" windowHeight="19160" firstSheet="4" activeTab="7" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_(en)_1.4" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="Fig_(en)_5.2.3" sheetId="9" r:id="rId5"/>
     <sheet name="Fig_(en)_6.1" sheetId="11" r:id="rId6"/>
     <sheet name="Fig_(en)_7.2" sheetId="10" r:id="rId7"/>
+    <sheet name="Fig_(en)_12.7" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fig_(en)_1.4'!$A$1:$U$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Fig_(en)_12.7'!$A$1:$AR$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Fig_(en)_2.1'!$A$1:$P$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Fig_(en)_2.2'!$A$1:$AB$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Fig_(en)_2.3'!$A$1:$R$29</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>SettingsManager</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +301,88 @@
   </si>
   <si>
     <t>W32×H32 dots</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETW cannot be used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAM drive compatibility</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Performance Counter limitations</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High DPI limitations</t>
+  </si>
+  <si>
+    <t>Task Scheduler disabled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Permission restrictions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Policy / Security</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Implementation differences between products</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows specifications</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinForms specifications</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Corporate environment restrictions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Security settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAM drive monitoring cannot be performed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O cannot be obtained</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Some drives cannot be monitored</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unstable rendering</t>
+  </si>
+  <si>
+    <t>Autorun not possible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logging/monitoring not working</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,6 +888,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,15 +907,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3678,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B55C6-DB72-411D-90D7-2BBBF10034E9}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -3693,46 +3777,46 @@
     </row>
     <row r="2" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="3" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="65" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="1:17" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C5" s="58" t="s">
@@ -3803,6 +3887,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:O5"/>
@@ -3812,12 +3902,6 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:O4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3921,4 +4005,392 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A398410-BCEF-4A0F-A1C7-65BF6CCC1A27}">
+  <dimension ref="A1:AR11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="15" width="3.08203125" style="1"/>
+    <col min="16" max="16" width="3.08203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="3.08203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="AR1" s="3"/>
+    </row>
+    <row r="2" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+    </row>
+    <row r="4" spans="1:44" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+    </row>
+    <row r="5" spans="1:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+    </row>
+    <row r="6" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+    </row>
+    <row r="7" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AO7" s="55"/>
+      <c r="AP7" s="55"/>
+    </row>
+    <row r="8" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+    </row>
+    <row r="9" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="AR11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="AC9:AP9"/>
+    <mergeCell ref="AC4:AP4"/>
+    <mergeCell ref="AC3:AP3"/>
+    <mergeCell ref="AC5:AP5"/>
+    <mergeCell ref="AC6:AP6"/>
+    <mergeCell ref="AC7:AP7"/>
+    <mergeCell ref="AC8:AP8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N4:AB4"/>
+    <mergeCell ref="N3:AB3"/>
+    <mergeCell ref="N6:AB6"/>
+    <mergeCell ref="N7:AB7"/>
+    <mergeCell ref="N8:AB8"/>
+    <mergeCell ref="N9:AB9"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C8:M8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>